--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_19_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2721407.765758837</v>
+        <v>-2724022.044375289</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>28.16221029734888</v>
+        <v>141.7695293810296</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>411.2146126744141</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>297.6072935907341</v>
       </c>
       <c r="I2" t="n">
-        <v>52.86845664851268</v>
+        <v>52.86845664851265</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -756,7 +756,7 @@
         <v>91.1103483761872</v>
       </c>
       <c r="I3" t="n">
-        <v>14.0869132767431</v>
+        <v>14.08691327674309</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>94.83943180792922</v>
+        <v>94.8394318079292</v>
       </c>
       <c r="S4" t="n">
-        <v>192.0586035981867</v>
+        <v>192.0586035981866</v>
       </c>
       <c r="T4" t="n">
         <v>220.1102960603998</v>
@@ -874,7 +874,7 @@
         <v>286.2190043347733</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>229.2301036508481</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -883,7 +883,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>156.924440508957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>335.6189877696312</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>36.95558184798582</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -990,10 +990,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,25 +1054,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>23.35772589727778</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>28.43919684076942</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>379.2486623567075</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>382.4827461567857</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>97.27989568773788</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1351,10 +1351,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>93.47758125341707</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695557</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1534,7 +1534,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>99.97427419833785</v>
+        <v>99.97427419833875</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,16 +1768,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>83.0656089242819</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>99.97427419833829</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892442</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>18.70843787977248</v>
+        <v>83.06560892428189</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012162</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.405450327288</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892442</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>110.0177171766858</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>102.1557845699813</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892437</v>
+        <v>286.1844743892442</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2327,7 +2327,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>99.97427419833878</v>
+        <v>99.97427419833782</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2527,10 +2527,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>217.405450327288</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892437</v>
+        <v>286.1844743892444</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2731,7 +2731,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652547</v>
+        <v>56.98118882652535</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808248</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
@@ -2767,7 +2767,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972046</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V28" t="n">
         <v>227.8529958317883</v>
@@ -2855,7 +2855,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2956,7 +2956,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E31" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F31" t="n">
         <v>121.1364005308915</v>
@@ -2965,10 +2965,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H31" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I31" t="n">
-        <v>56.98118882652631</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808248</v>
       </c>
       <c r="S31" t="n">
-        <v>156.7416385096047</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T31" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
         <v>261.8998268972044</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541848</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652551</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972048</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808248</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096047</v>
       </c>
       <c r="T37" t="n">
         <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972051</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>155.5473326898975</v>
+        <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
         <v>142.9621736065881</v>
@@ -3667,7 +3667,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652577</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808192</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
-        <v>156.7416385096047</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T40" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972051</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V40" t="n">
-        <v>227.8529958317882</v>
+        <v>227.8529958317883</v>
       </c>
       <c r="W40" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
         <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
-        <v>194.300005860055</v>
+        <v>194.3000058600551</v>
       </c>
     </row>
     <row r="41">
@@ -3743,13 +3743,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808248</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4135,7 +4135,7 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C46" t="n">
-        <v>142.9621736065881</v>
+        <v>142.9621736065882</v>
       </c>
       <c r="D46" t="n">
         <v>124.3308255261727</v>
@@ -4147,7 +4147,7 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G46" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H46" t="n">
         <v>116.0100653541842</v>
@@ -4198,7 +4198,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X46" t="n">
-        <v>201.4250078969974</v>
+        <v>201.4250078969975</v>
       </c>
       <c r="Y46" t="n">
         <v>194.3000058600551</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>556.5871098736779</v>
+        <v>556.5871098736784</v>
       </c>
       <c r="C2" t="n">
-        <v>528.1404328056486</v>
+        <v>413.3855650443555</v>
       </c>
       <c r="D2" t="n">
-        <v>528.1404328056486</v>
+        <v>413.3855650443555</v>
       </c>
       <c r="E2" t="n">
-        <v>528.1404328056486</v>
+        <v>413.3855650443555</v>
       </c>
       <c r="F2" t="n">
-        <v>528.1404328056486</v>
+        <v>413.3855650443555</v>
       </c>
       <c r="G2" t="n">
-        <v>112.7721371749272</v>
+        <v>413.3855650443555</v>
       </c>
       <c r="H2" t="n">
         <v>112.7721371749272</v>
       </c>
       <c r="I2" t="n">
-        <v>59.36965571178312</v>
+        <v>59.36965571178314</v>
       </c>
       <c r="J2" t="n">
-        <v>223.6389510734994</v>
+        <v>223.6389510734989</v>
       </c>
       <c r="K2" t="n">
-        <v>520.5745606447438</v>
+        <v>520.5745606447435</v>
       </c>
       <c r="L2" t="n">
         <v>925.851203018502</v>
       </c>
       <c r="M2" t="n">
-        <v>1408.468993552356</v>
+        <v>1408.468993552357</v>
       </c>
       <c r="N2" t="n">
-        <v>1903.509852877246</v>
+        <v>1903.509852877248</v>
       </c>
       <c r="O2" t="n">
-        <v>2357.627637384223</v>
+        <v>2357.627637384224</v>
       </c>
       <c r="P2" t="n">
-        <v>2710.705659215708</v>
+        <v>2710.705659215709</v>
       </c>
       <c r="Q2" t="n">
-        <v>2927.67980271947</v>
+        <v>2927.679802719471</v>
       </c>
       <c r="R2" t="n">
-        <v>2968.482785589156</v>
+        <v>2968.482785589157</v>
       </c>
       <c r="S2" t="n">
-        <v>2851.45053833833</v>
+        <v>2851.450538338331</v>
       </c>
       <c r="T2" t="n">
         <v>2644.177727152598</v>
       </c>
       <c r="U2" t="n">
-        <v>2390.623582788376</v>
+        <v>2390.623582788377</v>
       </c>
       <c r="V2" t="n">
-        <v>2059.560695444805</v>
+        <v>2059.560695444806</v>
       </c>
       <c r="W2" t="n">
-        <v>1706.792040174691</v>
+        <v>1706.792040174692</v>
       </c>
       <c r="X2" t="n">
-        <v>1333.326281913611</v>
+        <v>1333.326281913612</v>
       </c>
       <c r="Y2" t="n">
-        <v>943.1869499377997</v>
+        <v>943.1869499378001</v>
       </c>
     </row>
     <row r="3">
@@ -4401,31 +4401,31 @@
         <v>165.6295159672683</v>
       </c>
       <c r="H3" t="n">
-        <v>73.59886104182665</v>
+        <v>73.59886104182667</v>
       </c>
       <c r="I3" t="n">
-        <v>59.36965571178312</v>
+        <v>59.36965571178314</v>
       </c>
       <c r="J3" t="n">
-        <v>138.389475714895</v>
+        <v>138.3894757148951</v>
       </c>
       <c r="K3" t="n">
-        <v>351.6017589168899</v>
+        <v>351.60175891689</v>
       </c>
       <c r="L3" t="n">
-        <v>684.6145268671323</v>
+        <v>684.6145268671326</v>
       </c>
       <c r="M3" t="n">
-        <v>1092.581588039813</v>
+        <v>1092.581588039814</v>
       </c>
       <c r="N3" t="n">
         <v>1525.754968293605</v>
       </c>
       <c r="O3" t="n">
-        <v>1899.804188738134</v>
+        <v>1899.804188738135</v>
       </c>
       <c r="P3" t="n">
-        <v>2180.67859866338</v>
+        <v>2180.678598663381</v>
       </c>
       <c r="Q3" t="n">
         <v>2522.971720424101</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>59.36965571178312</v>
+        <v>59.36965571178314</v>
       </c>
       <c r="C4" t="n">
-        <v>59.36965571178312</v>
+        <v>59.36965571178314</v>
       </c>
       <c r="D4" t="n">
-        <v>59.36965571178312</v>
+        <v>59.36965571178314</v>
       </c>
       <c r="E4" t="n">
-        <v>59.36965571178312</v>
+        <v>59.36965571178314</v>
       </c>
       <c r="F4" t="n">
-        <v>59.36965571178312</v>
+        <v>59.36965571178314</v>
       </c>
       <c r="G4" t="n">
-        <v>59.36965571178312</v>
+        <v>59.36965571178314</v>
       </c>
       <c r="H4" t="n">
-        <v>59.36965571178312</v>
+        <v>59.36965571178314</v>
       </c>
       <c r="I4" t="n">
-        <v>59.36965571178312</v>
+        <v>59.36965571178314</v>
       </c>
       <c r="J4" t="n">
-        <v>95.29667538945981</v>
+        <v>95.29667538945986</v>
       </c>
       <c r="K4" t="n">
-        <v>284.1726417778208</v>
+        <v>284.1726417778209</v>
       </c>
       <c r="L4" t="n">
-        <v>581.3952856386277</v>
+        <v>581.3952856386278</v>
       </c>
       <c r="M4" t="n">
-        <v>905.1640129945954</v>
+        <v>905.1640129945956</v>
       </c>
       <c r="N4" t="n">
         <v>1226.668860094579</v>
@@ -4504,34 +4504,34 @@
         <v>1507.614327944344</v>
       </c>
       <c r="P4" t="n">
-        <v>1724.49102829028</v>
+        <v>1724.491028290281</v>
       </c>
       <c r="Q4" t="n">
-        <v>1791.210133852896</v>
+        <v>1791.210133852897</v>
       </c>
       <c r="R4" t="n">
         <v>1695.412727986301</v>
       </c>
       <c r="S4" t="n">
-        <v>1501.414138493183</v>
+        <v>1501.414138493184</v>
       </c>
       <c r="T4" t="n">
         <v>1279.080506108941</v>
       </c>
       <c r="U4" t="n">
-        <v>989.9704007202813</v>
+        <v>989.9704007202816</v>
       </c>
       <c r="V4" t="n">
-        <v>735.2859125143945</v>
+        <v>758.4248414770008</v>
       </c>
       <c r="W4" t="n">
-        <v>445.8687424774338</v>
+        <v>469.0076714400402</v>
       </c>
       <c r="X4" t="n">
-        <v>217.8791915794165</v>
+        <v>241.0181205420228</v>
       </c>
       <c r="Y4" t="n">
-        <v>59.36965571178312</v>
+        <v>241.0181205420228</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1274.580917301916</v>
+        <v>1921.870414581994</v>
       </c>
       <c r="C5" t="n">
-        <v>1274.580917301916</v>
+        <v>1552.907897641582</v>
       </c>
       <c r="D5" t="n">
-        <v>916.3152186951659</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>530.5269660969217</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4565,10 +4565,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919559</v>
+        <v>2698.609586621927</v>
       </c>
       <c r="Y5" t="n">
-        <v>1661.180757366038</v>
+        <v>2308.470254646115</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064582</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4665,7 +4665,7 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
         <v>2564.909189125857</v>
@@ -4674,16 +4674,16 @@
         <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
         <v>1317.519490266131</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>409.1586012949289</v>
+        <v>409.1586012949293</v>
       </c>
       <c r="C7" t="n">
-        <v>240.222418367022</v>
+        <v>409.1586012949293</v>
       </c>
       <c r="D7" t="n">
-        <v>90.10577895468623</v>
+        <v>409.1586012949293</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218342</v>
+        <v>409.1586012949293</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218342</v>
+        <v>409.1586012949293</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218342</v>
+        <v>241.4557646696483</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>95.23857788750607</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4744,10 +4744,10 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
         <v>1645.778206672847</v>
@@ -4759,16 +4759,16 @@
         <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>880.2242361621292</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>590.8070661251686</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="X7" t="n">
-        <v>590.8070661251686</v>
+        <v>590.8070661251691</v>
       </c>
       <c r="Y7" t="n">
-        <v>590.8070661251686</v>
+        <v>590.8070661251691</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1664.678443125552</v>
+        <v>1495.089731832625</v>
       </c>
       <c r="C8" t="n">
-        <v>1295.71592618514</v>
+        <v>1126.127214892214</v>
       </c>
       <c r="D8" t="n">
-        <v>1295.71592618514</v>
+        <v>767.8615162854633</v>
       </c>
       <c r="E8" t="n">
-        <v>909.9276735868957</v>
+        <v>382.0732636872191</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2994.542934265598</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450753</v>
+        <v>2641.774278995484</v>
       </c>
       <c r="X8" t="n">
-        <v>2051.278283189673</v>
+        <v>2268.308520734404</v>
       </c>
       <c r="Y8" t="n">
-        <v>2051.278283189673</v>
+        <v>1878.169188758593</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>235.4482993600903</v>
+        <v>383.3613929424835</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218342</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218342</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S10" t="n">
-        <v>1739.201569949316</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1517.434954518842</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1228.332087644485</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>973.6475994385985</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="W10" t="n">
-        <v>684.2304294016378</v>
+        <v>880.2242361621292</v>
       </c>
       <c r="X10" t="n">
-        <v>456.2408785036205</v>
+        <v>785.8024369162533</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.4482993600903</v>
+        <v>565.0098577727232</v>
       </c>
     </row>
     <row r="11">
@@ -5033,31 +5033,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400708</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121639</v>
+        <v>344.9174178121649</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998283</v>
+        <v>194.8007783998292</v>
       </c>
       <c r="E13" t="n">
         <v>93.81666304797187</v>
@@ -5230,19 +5230,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138406</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703105</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="14">
@@ -5273,31 +5273,31 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5364,7 +5364,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N15" t="n">
         <v>1307.627092998424</v>
@@ -5416,13 +5416,13 @@
         <v>344.9174178121646</v>
       </c>
       <c r="D16" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998287</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
         <v>93.81666304797187</v>
@@ -5434,7 +5434,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
         <v>435.7419440038343</v>
@@ -5449,7 +5449,7 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
@@ -5464,7 +5464,7 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
         <v>1688.385853854706</v>
@@ -5473,7 +5473,7 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
         <v>916.2946447138413</v>
@@ -5513,10 +5513,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400711</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121642</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998285</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="E19" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5689,13 +5689,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
         <v>2197.062545487567</v>
@@ -5710,13 +5710,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.294644713841</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703108</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="20">
@@ -5741,19 +5741,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5835,16 +5835,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400714</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>197.0043242297712</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5911,10 +5911,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5926,13 +5926,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
         <v>2197.062545487567</v>
@@ -5947,13 +5947,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138413</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703111</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5969,28 +5969,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6072,13 +6072,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400708</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8007783998292</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E25" t="n">
-        <v>194.8007783998292</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="F25" t="n">
-        <v>194.8007783998292</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="G25" t="n">
-        <v>194.8007783998292</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6169,7 +6169,7 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
         <v>2197.062545487567</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138406</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703105</v>
       </c>
     </row>
     <row r="26">
@@ -6212,22 +6212,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6309,13 +6309,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D28" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G28" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345472</v>
       </c>
       <c r="H28" t="n">
-        <v>151.3734194384016</v>
+        <v>151.3734194384015</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K28" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L28" t="n">
         <v>898.2659412311323</v>
@@ -6406,10 +6406,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R28" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S28" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T28" t="n">
         <v>2243.385329532432</v>
@@ -6424,7 +6424,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X28" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y28" t="n">
         <v>1084.076049400516</v>
@@ -6452,19 +6452,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6503,7 +6503,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C31" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150029</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E31" t="n">
-        <v>533.581456494266</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F31" t="n">
-        <v>411.2214559580119</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G31" t="n">
-        <v>268.5553036345481</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H31" t="n">
-        <v>151.3734194384025</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6643,10 +6643,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
@@ -6655,7 +6655,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V31" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W31" t="n">
         <v>1483.798285518751</v>
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6783,7 +6783,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M33" t="n">
         <v>680.0291294438176</v>
@@ -6832,49 +6832,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345477</v>
+        <v>268.555303634548</v>
       </c>
       <c r="H34" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384017</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
         <v>2639.297491717215</v>
@@ -6898,7 +6898,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6911,19 +6911,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6968,19 +6968,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7020,10 +7020,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7081,7 +7081,7 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G37" t="n">
         <v>268.5553036345476</v>
@@ -7117,16 +7117,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
@@ -7154,10 +7154,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7172,10 +7172,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7260,10 +7260,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E40" t="n">
         <v>533.5814564942654</v>
@@ -7321,7 +7321,7 @@
         <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,10 +7330,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K40" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
         <v>898.2659412311323</v>
@@ -7363,7 +7363,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7372,7 +7372,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7391,10 +7391,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7406,22 +7406,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7543,7 +7543,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C43" t="n">
         <v>782.5512955656818</v>
@@ -7555,7 +7555,7 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G43" t="n">
         <v>268.5553036345476</v>
@@ -7564,13 +7564,13 @@
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311323</v>
@@ -7810,7 +7810,7 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -7828,7 +7828,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>206.5204176047009</v>
+        <v>206.5204176046999</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -22547,7 +22547,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>337.1106814736586</v>
+        <v>223.503362389978</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -22559,10 +22559,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>411.2146126744141</v>
       </c>
       <c r="H2" t="n">
-        <v>297.6072935907341</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -22762,7 +22762,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>22.90753967297994</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>61.66021284313783</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>46.45968844823132</v>
+        <v>46.45968844823042</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>65.54986409393045</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459295</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>127.7255247667967</v>
+        <v>63.36835372228727</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24127,22 +24127,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>57.22910392194206</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294997</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24379,7 +24379,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>40.32043864788511</v>
+        <v>40.32043864788648</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -26366,13 +26366,13 @@
         <v>1228620.061871473</v>
       </c>
       <c r="C3" t="n">
-        <v>95186.49343973098</v>
+        <v>95186.4934397309</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073555</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>213599.145481804</v>
+        <v>213599.1454818042</v>
       </c>
       <c r="K3" t="n">
-        <v>22978.01038359979</v>
+        <v>22978.01038359973</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551193</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363175</v>
+        <v>19427.71799363177</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17443.36326662286</v>
+        <v>17443.36326662284</v>
       </c>
       <c r="C4" t="n">
-        <v>91573.95495316944</v>
+        <v>91573.95495316942</v>
       </c>
       <c r="D4" t="n">
-        <v>91573.95495316944</v>
+        <v>91573.95495316948</v>
       </c>
       <c r="E4" t="n">
         <v>12386.92018181813</v>
@@ -26442,19 +26442,19 @@
         <v>20377.77944491159</v>
       </c>
       <c r="K4" t="n">
+        <v>20377.7794449116</v>
+      </c>
+      <c r="L4" t="n">
+        <v>20377.7794449116</v>
+      </c>
+      <c r="M4" t="n">
         <v>20377.77944491159</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>20377.77944491159</v>
       </c>
-      <c r="M4" t="n">
-        <v>20377.7794449116</v>
-      </c>
-      <c r="N4" t="n">
-        <v>20377.77944491161</v>
-      </c>
       <c r="O4" t="n">
-        <v>20377.7794449116</v>
+        <v>20377.77944491159</v>
       </c>
       <c r="P4" t="n">
         <v>20377.77944491159</v>
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1346980.84245907</v>
+        <v>-1347410.40132566</v>
       </c>
       <c r="C6" t="n">
-        <v>-294694.3889542937</v>
+        <v>-294694.3889542936</v>
       </c>
       <c r="D6" t="n">
-        <v>-199507.8955145627</v>
+        <v>-199507.8955145628</v>
       </c>
       <c r="E6" t="n">
-        <v>-438921.9118130804</v>
+        <v>-438956.6497385164</v>
       </c>
       <c r="F6" t="n">
-        <v>-113509.4500057252</v>
+        <v>-113544.1879311609</v>
       </c>
       <c r="G6" t="n">
-        <v>-113509.4500057252</v>
+        <v>-113544.1879311609</v>
       </c>
       <c r="H6" t="n">
-        <v>-113509.4500057252</v>
+        <v>-113544.1879311609</v>
       </c>
       <c r="I6" t="n">
-        <v>-113509.4500057252</v>
+        <v>-113544.1879311609</v>
       </c>
       <c r="J6" t="n">
-        <v>-337141.040780631</v>
+        <v>-337141.0407806311</v>
       </c>
       <c r="K6" t="n">
-        <v>-146519.9056824268</v>
+        <v>-146519.9056824267</v>
       </c>
       <c r="L6" t="n">
         <v>-123541.895298827</v>
       </c>
       <c r="M6" t="n">
-        <v>-208596.9232343388</v>
+        <v>-208596.9232343389</v>
       </c>
       <c r="N6" t="n">
         <v>-123541.895298827</v>
@@ -26710,22 +26710,22 @@
         <v>24.28464749203971</v>
       </c>
       <c r="K2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="L2" t="n">
+        <v>24.28464749203973</v>
+      </c>
+      <c r="M2" t="n">
         <v>24.28464749203971</v>
       </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>24.28464749203971</v>
       </c>
-      <c r="M2" t="n">
-        <v>24.28464749203972</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203976</v>
-      </c>
       <c r="O2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1016.921054129328</v>
+        <v>1016.921054129329</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>742.120696397289</v>
+        <v>742.1206963972892</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203969</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1016.921054129328</v>
+        <v>1016.921054129329</v>
       </c>
       <c r="C3" t="n">
         <v>72.85564646396972</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>742.120696397289</v>
+        <v>742.1206963972892</v>
       </c>
       <c r="C4" t="n">
-        <v>89.28075900500369</v>
+        <v>89.28075900500346</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>742.1206963972888</v>
+        <v>742.1206963972893</v>
       </c>
       <c r="K4" t="n">
-        <v>89.28075900500369</v>
+        <v>89.28075900500346</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>742.120696397289</v>
+        <v>742.1206963972892</v>
       </c>
       <c r="K4" t="n">
-        <v>89.28075900500369</v>
+        <v>89.28075900500346</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973561</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>19.06405385105171</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>349.2823568080678</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,25 +27774,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>123.0762367492914</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>67.91322356906866</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>3.485179306773091</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>24.39329958492573</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,7 +28059,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>92.48912964370402</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28071,10 +28071,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>132.2320741356201</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y31" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203976</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="C46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="D46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="E46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="F46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="G46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="H46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="I46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="J46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="K46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="L46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="N46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="O46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="P46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="R46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="S46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="T46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="U46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="V46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="W46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="X46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203969</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.088124840720915</v>
+        <v>4.088124840720916</v>
       </c>
       <c r="H2" t="n">
-        <v>41.86750852503308</v>
+        <v>41.86750852503309</v>
       </c>
       <c r="I2" t="n">
-        <v>157.6074329218932</v>
+        <v>157.6074329218933</v>
       </c>
       <c r="J2" t="n">
-        <v>346.9744857001371</v>
+        <v>346.9744857001372</v>
       </c>
       <c r="K2" t="n">
-        <v>520.0248102078535</v>
+        <v>520.0248102078536</v>
       </c>
       <c r="L2" t="n">
-        <v>645.1367608020663</v>
+        <v>645.1367608020665</v>
       </c>
       <c r="M2" t="n">
-        <v>717.8389509382368</v>
+        <v>717.8389509382371</v>
       </c>
       <c r="N2" t="n">
-        <v>729.4543356419352</v>
+        <v>729.4543356419354</v>
       </c>
       <c r="O2" t="n">
-        <v>688.8030442570166</v>
+        <v>688.8030442570167</v>
       </c>
       <c r="P2" t="n">
-        <v>587.877462251719</v>
+        <v>587.8774622517191</v>
       </c>
       <c r="Q2" t="n">
-        <v>441.471491393401</v>
+        <v>441.4714913934011</v>
       </c>
       <c r="R2" t="n">
-        <v>256.8006720259354</v>
+        <v>256.8006720259355</v>
       </c>
       <c r="S2" t="n">
-        <v>93.15814480792794</v>
+        <v>93.15814480792797</v>
       </c>
       <c r="T2" t="n">
-        <v>17.89576649025581</v>
+        <v>17.89576649025582</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3270499872576731</v>
+        <v>0.3270499872576732</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31124,40 +31124,40 @@
         <v>21.12509586030926</v>
       </c>
       <c r="I3" t="n">
-        <v>75.30971957467197</v>
+        <v>75.30971957467199</v>
       </c>
       <c r="J3" t="n">
         <v>206.6556266698101</v>
       </c>
       <c r="K3" t="n">
-        <v>353.2073816026366</v>
+        <v>353.2073816026368</v>
       </c>
       <c r="L3" t="n">
-        <v>474.9309130629472</v>
+        <v>474.9309130629474</v>
       </c>
       <c r="M3" t="n">
-        <v>554.2219745004838</v>
+        <v>554.221974500484</v>
       </c>
       <c r="N3" t="n">
-        <v>568.890581026557</v>
+        <v>568.8905810265571</v>
       </c>
       <c r="O3" t="n">
-        <v>520.4237398429592</v>
+        <v>520.4237398429593</v>
       </c>
       <c r="P3" t="n">
         <v>417.6859325913463</v>
       </c>
       <c r="Q3" t="n">
-        <v>279.2119845224526</v>
+        <v>279.2119845224527</v>
       </c>
       <c r="R3" t="n">
         <v>135.8069287005168</v>
       </c>
       <c r="S3" t="n">
-        <v>40.62887419092173</v>
+        <v>40.62887419092174</v>
       </c>
       <c r="T3" t="n">
-        <v>8.816513667404267</v>
+        <v>8.816513667404271</v>
       </c>
       <c r="U3" t="n">
         <v>0.1439039227541503</v>
@@ -31200,10 +31200,10 @@
         <v>1.833792064823379</v>
       </c>
       <c r="H4" t="n">
-        <v>16.30407853997514</v>
+        <v>16.30407853997515</v>
       </c>
       <c r="I4" t="n">
-        <v>55.1471286403249</v>
+        <v>55.14712864032492</v>
       </c>
       <c r="J4" t="n">
         <v>129.6490989830129</v>
@@ -31212,7 +31212,7 @@
         <v>213.0532962585707</v>
       </c>
       <c r="L4" t="n">
-        <v>272.6348675283776</v>
+        <v>272.6348675283777</v>
       </c>
       <c r="M4" t="n">
         <v>287.4552415795411</v>
@@ -31221,22 +31221,22 @@
         <v>280.620198428836</v>
       </c>
       <c r="O4" t="n">
-        <v>259.1981729443082</v>
+        <v>259.1981729443083</v>
       </c>
       <c r="P4" t="n">
-        <v>221.7888148219111</v>
+        <v>221.7888148219112</v>
       </c>
       <c r="Q4" t="n">
         <v>153.5550791735286</v>
       </c>
       <c r="R4" t="n">
-        <v>82.45395956924027</v>
+        <v>82.45395956924028</v>
       </c>
       <c r="S4" t="n">
-        <v>31.9579944387856</v>
+        <v>31.95799443878561</v>
       </c>
       <c r="T4" t="n">
-        <v>7.835293367881707</v>
+        <v>7.835293367881709</v>
       </c>
       <c r="U4" t="n">
         <v>0.100025021717639</v>
@@ -31276,43 +31276,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31361,40 +31361,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31434,13 +31434,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31449,16 +31449,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31467,16 +31467,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32084,31 +32084,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N15" t="n">
-        <v>754.0002396832324</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32555,19 +32555,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>550.5977692975241</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
@@ -32792,16 +32792,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>188.4731159523455</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -32968,7 +32968,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S26" t="n">
         <v>125.31755462929</v>
@@ -33029,7 +33029,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>688.8020111197787</v>
+        <v>188.4731159523455</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33424,7 +33424,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M32" t="n">
         <v>965.6463440175675</v>
@@ -33503,10 +33503,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33740,13 +33740,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N36" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33980,13 +33980,13 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>688.8020111197787</v>
       </c>
       <c r="P39" t="n">
         <v>561.8765786214698</v>
@@ -34132,7 +34132,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L41" t="n">
         <v>867.846407116256</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>165.9285811734508</v>
+        <v>165.9285811734509</v>
       </c>
       <c r="K2" t="n">
-        <v>299.934959162873</v>
+        <v>299.9349591628731</v>
       </c>
       <c r="L2" t="n">
-        <v>409.3703458320791</v>
+        <v>409.3703458320793</v>
       </c>
       <c r="M2" t="n">
-        <v>487.4927177109641</v>
+        <v>487.4927177109644</v>
       </c>
       <c r="N2" t="n">
-        <v>500.0412720453443</v>
+        <v>500.0412720453444</v>
       </c>
       <c r="O2" t="n">
-        <v>458.7048328353299</v>
+        <v>458.70483283533</v>
       </c>
       <c r="P2" t="n">
-        <v>356.6444664964494</v>
+        <v>356.6444664964495</v>
       </c>
       <c r="Q2" t="n">
-        <v>219.1658015189515</v>
+        <v>219.1658015189516</v>
       </c>
       <c r="R2" t="n">
-        <v>41.21513421180327</v>
+        <v>41.21513421180333</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>79.81800000314337</v>
+        <v>79.8180000031434</v>
       </c>
       <c r="K3" t="n">
-        <v>215.3659426282777</v>
+        <v>215.3659426282778</v>
       </c>
       <c r="L3" t="n">
-        <v>336.3765332830731</v>
+        <v>336.3765332830732</v>
       </c>
       <c r="M3" t="n">
-        <v>412.0879405784655</v>
+        <v>412.0879405784656</v>
       </c>
       <c r="N3" t="n">
-        <v>437.5488689432237</v>
+        <v>437.5488689432239</v>
       </c>
       <c r="O3" t="n">
-        <v>377.8274953985148</v>
+        <v>377.8274953985149</v>
       </c>
       <c r="P3" t="n">
-        <v>283.711525177016</v>
+        <v>283.7115251770161</v>
       </c>
       <c r="Q3" t="n">
-        <v>345.750628041132</v>
+        <v>345.7506280411311</v>
       </c>
       <c r="R3" t="n">
-        <v>35.64909454787364</v>
+        <v>35.64909454787367</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>36.28991886634009</v>
+        <v>36.28991886634012</v>
       </c>
       <c r="K4" t="n">
-        <v>190.7838044326878</v>
+        <v>190.7838044326879</v>
       </c>
       <c r="L4" t="n">
-        <v>300.2248927886938</v>
+        <v>300.2248927886939</v>
       </c>
       <c r="M4" t="n">
-        <v>327.0391185413816</v>
+        <v>327.0391185413817</v>
       </c>
       <c r="N4" t="n">
         <v>324.7523708080646</v>
       </c>
       <c r="O4" t="n">
-        <v>283.7833008583479</v>
+        <v>283.783300858348</v>
       </c>
       <c r="P4" t="n">
         <v>219.0673740868046</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.3930359218342</v>
+        <v>67.39303592183423</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,10 +35091,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35106,13 +35106,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,22 +35732,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N15" t="n">
-        <v>622.6585275998991</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -36203,19 +36203,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>416.6233618831939</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
@@ -36373,7 +36373,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
         <v>371.5675334924728</v>
@@ -36440,16 +36440,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,7 +36677,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>546.2057666753343</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36753,10 +36753,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M28" t="n">
         <v>450.5570744930848</v>
@@ -37008,7 +37008,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q31" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37072,7 +37072,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M32" t="n">
         <v>735.3001107902948</v>
@@ -37151,10 +37151,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37388,13 +37388,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N36" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37628,13 +37628,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>546.2057666753343</v>
       </c>
       <c r="P39" t="n">
         <v>427.9021712071395</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L41" t="n">
         <v>632.0799921462688</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
